--- a/tabular/genus/boca-refseqs-side-data.xlsx
+++ b/tabular/genus/boca-refseqs-side-data.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97BA801-7DED-C549-A312-75E3EF1F47BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C97C9-411B-A840-9EB3-9644AA56734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFSET" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>accession-ID</t>
   </si>
@@ -112,6 +121,30 @@
   </si>
   <si>
     <t>Sus-ArtBoV4-1</t>
+  </si>
+  <si>
+    <t>NC_004442</t>
+  </si>
+  <si>
+    <t>Canine minute virus</t>
+  </si>
+  <si>
+    <t>Canis familiaris</t>
+  </si>
+  <si>
+    <t>Rhinolophus pusillus</t>
+  </si>
+  <si>
+    <t>Sus scrofa</t>
+  </si>
+  <si>
+    <t>Zalophus californianus</t>
+  </si>
+  <si>
+    <t>Rousettus leschenaultii</t>
+  </si>
+  <si>
+    <t>CanFam-CarBV1</t>
   </si>
 </sst>
 </file>
@@ -2365,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D5" sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2376,7 +2409,9 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="7" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
@@ -2433,7 +2468,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -2471,7 +2506,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -2509,7 +2544,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -2547,7 +2582,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -2585,7 +2620,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -2609,6 +2644,44 @@
         <v>12</v>
       </c>
       <c r="L6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tabular/genus/boca-refseqs-side-data.xlsx
+++ b/tabular/genus/boca-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C97C9-411B-A840-9EB3-9644AA56734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FBF2B7-D33D-FB42-B198-639E7193BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2401,7 +2401,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:L7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/boca-refseqs-side-data.xlsx
+++ b/tabular/genus/boca-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FBF2B7-D33D-FB42-B198-639E7193BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F949CA-97B2-854E-8147-1FB1B57D2F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
-    <t>accession-ID</t>
-  </si>
-  <si>
     <t>virus_name</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>CanFam-CarBV1</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -2400,9 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2421,75 +2419,75 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -2497,37 +2495,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -2535,37 +2533,37 @@
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -2573,37 +2571,37 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -2611,37 +2609,37 @@
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -2649,37 +2647,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>

--- a/tabular/genus/boca-refseqs-side-data.xlsx
+++ b/tabular/genus/boca-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F949CA-97B2-854E-8147-1FB1B57D2F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4E291F-642C-9A48-B923-F20430004C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>virus_name</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>sequenceID</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -2398,9 +2404,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2408,16 +2416,16 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2434,28 +2442,31 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2472,11 +2483,11 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
@@ -2489,11 +2500,14 @@
       <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="b">
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2510,11 +2524,11 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
@@ -2527,11 +2541,14 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="b">
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2548,11 +2565,11 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
@@ -2565,11 +2582,14 @@
       <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="b">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2586,11 +2606,11 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
@@ -2603,11 +2623,14 @@
       <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" t="b">
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2624,11 +2647,11 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
@@ -2641,11 +2664,14 @@
       <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" t="b">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2662,11 +2688,11 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
@@ -2679,13 +2705,16 @@
       <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" t="b">
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L6">
-    <sortCondition ref="H2:H6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M6">
+    <sortCondition ref="I2:I6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/genus/boca-refseqs-side-data.xlsx
+++ b/tabular/genus/boca-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4E291F-642C-9A48-B923-F20430004C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1EAF3C-8446-A446-A5EA-EB649AE90887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFSET" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
   <si>
     <t>virus_name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>host_species</t>
   </si>
   <si>
-    <t>lab_construct</t>
-  </si>
-  <si>
     <t>virus_clade_ns</t>
   </si>
   <si>
@@ -151,6 +148,123 @@
   </si>
   <si>
     <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>NC_055487</t>
+  </si>
+  <si>
+    <t>NC_040533</t>
+  </si>
+  <si>
+    <t>MN871711</t>
+  </si>
+  <si>
+    <t>Murine bocavirus</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>Squirrel bocaparvovirus</t>
+  </si>
+  <si>
+    <t>Callosciurus phayrei</t>
+  </si>
+  <si>
+    <t>Sq-Bv</t>
+  </si>
+  <si>
+    <t>Mur-Bv</t>
+  </si>
+  <si>
+    <t>Lupine bocavirus</t>
+  </si>
+  <si>
+    <t>Lup-Bv</t>
+  </si>
+  <si>
+    <t>Canis lupus</t>
+  </si>
+  <si>
+    <t>Primate bocaparvovirus 3</t>
+  </si>
+  <si>
+    <t>MN091929</t>
+  </si>
+  <si>
+    <t>Pri-Bv-3</t>
+  </si>
+  <si>
+    <t>Macaca mulatta</t>
+  </si>
+  <si>
+    <t>Rat bocavirus</t>
+  </si>
+  <si>
+    <t>MG905225</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Rat-Bv</t>
+  </si>
+  <si>
+    <t>Dromedary camel bocaparvovirus 2</t>
+  </si>
+  <si>
+    <t>Camelus dromedarius</t>
+  </si>
+  <si>
+    <t>Cam-Bv-2</t>
+  </si>
+  <si>
+    <t>Cam-Bv-1</t>
+  </si>
+  <si>
+    <t>NC_035186</t>
+  </si>
+  <si>
+    <t>NC_035185</t>
+  </si>
+  <si>
+    <t>Dromedary camel bocaparvovirus 1</t>
+  </si>
+  <si>
+    <t>Elaphodus cephalophus</t>
+  </si>
+  <si>
+    <t>Elaphodus cephalophus bocavirus</t>
+  </si>
+  <si>
+    <t>MW824450</t>
+  </si>
+  <si>
+    <t>MK513525</t>
+  </si>
+  <si>
+    <t>Tasmanian devil-associated bocavirus 1</t>
+  </si>
+  <si>
+    <t>Sarcophilus harrisii</t>
+  </si>
+  <si>
+    <t>Devil-BV-1</t>
+  </si>
+  <si>
+    <t>ElaCepBv</t>
+  </si>
+  <si>
+    <t>Rabbit bocavirus</t>
+  </si>
+  <si>
+    <t>Rabbit-Bv</t>
+  </si>
+  <si>
+    <t>Oryctolagus cuniculus</t>
+  </si>
+  <si>
+    <t>MT150090</t>
   </si>
 </sst>
 </file>
@@ -1137,12 +1251,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="915">
@@ -2404,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:M7"/>
+      <selection activeCell="E10" sqref="A1:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2422,12 +2533,11 @@
     <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2439,281 +2549,640 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L6">
     <sortCondition ref="I2:I6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/genus/boca-refseqs-side-data.xlsx
+++ b/tabular/genus/boca-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1EAF3C-8446-A446-A5EA-EB649AE90887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE125EB3-91BD-6544-94BE-E8D76E7394B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="81">
   <si>
     <t>virus_name</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>MT150090</t>
+  </si>
+  <si>
+    <t>MF464269</t>
+  </si>
+  <si>
+    <t>Marmot-BV</t>
+  </si>
+  <si>
+    <t>Himalayan marmot bocaparvovirus 2</t>
+  </si>
+  <si>
+    <t>Marmota himalayana</t>
   </si>
 </sst>
 </file>
@@ -2515,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:L17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3181,6 +3193,44 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L6">
     <sortCondition ref="I2:I6"/>

--- a/tabular/genus/boca-refseqs-side-data.xlsx
+++ b/tabular/genus/boca-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE125EB3-91BD-6544-94BE-E8D76E7394B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01210732-9B2E-DA45-BD6A-2D3572D80061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21140" yWindow="5400" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFSET" sheetId="3" r:id="rId1"/>
@@ -2530,7 +2530,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
